--- a/Github单词本/单词本大略.xlsx
+++ b/Github单词本/单词本大略.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1科协GitHub推动\-GitHub-\Github单词本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8551A81C-222D-4F44-BD60-303C965D793E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2EF5C8-84CB-461C-9408-F93B0393FF3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="36" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23040" yWindow="60" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="176">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,6 +459,268 @@
   </si>
   <si>
     <t>趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页explore界面中可能出现的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starred topics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主演的主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starred repositories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加星标的存储库</t>
+  </si>
+  <si>
+    <t>explore界面可能出现的句子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here's what we found based on your interests…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是我们根据您的兴趣发现的内容......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get email updates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取电子邮件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trending repositories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日热榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Browse popular topics on GitHub.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览GitHub上的热门话题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All featured topics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有精选的话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trending</t>
+  </si>
+  <si>
+    <t>Collections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curated lists and insight into burgeoning industries, topics, and communities.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划列表并深入了解新兴行业，主题和社区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text editors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sacred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel art tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素艺术工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页通知界面中可能会出现的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saved for later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留以后用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscriptions</t>
+  </si>
+  <si>
+    <t>订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页新建界面中可能出现的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revision history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version control system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本控制系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人界面可能出现的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开的邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contributions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人界面可能出现的句子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include private contributions on my profile</t>
+  </si>
+  <si>
+    <t>在我的个人资料中加入私人捐款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>developer site</t>
+  </si>
+  <si>
+    <t>开发者网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>轮廓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +728,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +742,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF586069"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,9 +776,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -785,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1186,6 +1466,250 @@
         <v>108</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1195,15 +1719,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F499DB5-9546-45C5-9B3C-488242329B59}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="1" max="1" width="69.109375" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1260,8 +1784,51 @@
         <v>40</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>